--- a/AAII_Financials/Quarterly/ABML_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABML_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>ABML</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,56 +665,63 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -742,8 +749,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -771,8 +784,14 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,8 +819,14 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,37 +838,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>700</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
       <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
       <c r="K12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,37 +904,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G14" s="3">
         <v>-300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,37 +990,45 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>5900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -977,28 +1036,34 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-5900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1075,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1019,28 +1086,34 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3">
         <v>800</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-700</v>
       </c>
       <c r="H20" s="3">
         <v>-200</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1068,66 +1141,84 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E22" s="3">
         <v>1100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-6600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1246,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-6600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-6600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1491,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1367,57 +1506,69 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-800</v>
-      </c>
-      <c r="F32" s="3">
-        <v>200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>700</v>
       </c>
       <c r="H32" s="3">
         <v>200</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-6600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-6600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,37 +1705,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>300</v>
-      </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,8 +1771,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1621,8 +1806,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,8 +1841,14 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1659,57 +1856,69 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>300</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="L46" s="3">
+        <v>300</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1725,11 +1934,11 @@
       <c r="G47" s="3">
         <v>0</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
@@ -1737,8 +1946,14 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1766,8 +1981,14 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1795,8 +2016,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +2086,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1882,8 +2121,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
       </c>
       <c r="F54" s="3">
+        <v>100</v>
+      </c>
+      <c r="G54" s="3">
+        <v>100</v>
+      </c>
+      <c r="H54" s="3">
         <v>500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>200</v>
-      </c>
-      <c r="H54" s="3">
-        <v>300</v>
-      </c>
-      <c r="I54" s="3">
-        <v>300</v>
       </c>
       <c r="J54" s="3">
         <v>300</v>
       </c>
       <c r="K54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="L54" s="3">
+        <v>300</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,8 +2225,10 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1975,115 +2236,139 @@
         <v>600</v>
       </c>
       <c r="E57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F57" s="3">
         <v>600</v>
       </c>
       <c r="G57" s="3">
+        <v>600</v>
+      </c>
+      <c r="H57" s="3">
+        <v>600</v>
+      </c>
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>400</v>
+      </c>
+      <c r="M57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>700</v>
+      </c>
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>500</v>
-      </c>
-      <c r="H58" s="3">
-        <v>800</v>
-      </c>
-      <c r="I58" s="3">
-        <v>700</v>
       </c>
       <c r="J58" s="3">
         <v>800</v>
       </c>
       <c r="K58" s="3">
+        <v>700</v>
+      </c>
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F59" s="3">
         <v>3900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F60" s="3">
         <v>4900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,8 +2396,14 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2140,8 +2431,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F66" s="3">
         <v>4900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-60400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-49900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-47400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-46400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-39800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-37300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-35000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-34600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-33700</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-4800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-4500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2400</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-1400</v>
       </c>
       <c r="K76" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M76" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-6600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +3030,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2664,8 +3061,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3290,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2880,8 +3321,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,8 +3391,14 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2967,8 +3426,14 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3581,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>800</v>
+      </c>
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
-      </c>
-      <c r="G100" s="3">
-        <v>400</v>
-      </c>
-      <c r="H100" s="3">
-        <v>500</v>
       </c>
       <c r="I100" s="3">
         <v>400</v>
       </c>
       <c r="J100" s="3">
+        <v>500</v>
+      </c>
+      <c r="K100" s="3">
+        <v>400</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,33 +3651,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABML_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABML_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>ABML</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,71 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,8 +763,14 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -790,8 +804,14 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +845,14 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,43 +866,51 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>300</v>
+      </c>
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
         <v>300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>700</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
       <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,43 +944,55 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F14" s="3">
         <v>-600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>-300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1026,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,43 +1044,51 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>5900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1036,34 +1096,40 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-5900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1143,10 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1086,34 +1154,40 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-700</v>
       </c>
       <c r="J20" s="3">
         <v>-200</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1147,78 +1221,96 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F22" s="3">
         <v>2500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-7500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-6600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1344,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1385,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-7500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-6600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-7500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-6600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1508,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1549,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1590,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1631,14 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1506,69 +1646,81 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
-      </c>
-      <c r="H32" s="3">
-        <v>200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>700</v>
       </c>
       <c r="J32" s="3">
         <v>200</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-7500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-6600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1754,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-7500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-6600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1862,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1879,51 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>800</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>300</v>
-      </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
-      <c r="J41" s="3">
-        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,8 +1957,14 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1812,8 +1998,14 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,78 +2039,96 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F46" s="3">
         <v>400</v>
-      </c>
-      <c r="E46" s="3">
-        <v>100</v>
-      </c>
-      <c r="F46" s="3">
-        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>300</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="N46" s="3">
+        <v>300</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1940,11 +2150,11 @@
       <c r="I47" s="3">
         <v>0</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
@@ -1952,31 +2162,37 @@
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -1987,8 +2203,14 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2244,14 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2285,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2326,14 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2127,8 +2367,14 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2408,55 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F54" s="3">
         <v>400</v>
-      </c>
-      <c r="E54" s="3">
-        <v>100</v>
-      </c>
-      <c r="F54" s="3">
-        <v>100</v>
       </c>
       <c r="G54" s="3">
         <v>100</v>
       </c>
       <c r="H54" s="3">
+        <v>100</v>
+      </c>
+      <c r="I54" s="3">
+        <v>100</v>
+      </c>
+      <c r="J54" s="3">
         <v>500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>200</v>
-      </c>
-      <c r="J54" s="3">
-        <v>300</v>
-      </c>
-      <c r="K54" s="3">
-        <v>300</v>
       </c>
       <c r="L54" s="3">
         <v>300</v>
       </c>
       <c r="M54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="N54" s="3">
+        <v>300</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2470,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,156 +2487,182 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="F57" s="3">
         <v>600</v>
       </c>
       <c r="G57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H57" s="3">
         <v>600</v>
       </c>
       <c r="I57" s="3">
+        <v>600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>600</v>
+      </c>
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>400</v>
-      </c>
-      <c r="L57" s="3">
-        <v>400</v>
       </c>
       <c r="M57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>400</v>
+      </c>
+      <c r="O57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>500</v>
-      </c>
-      <c r="J58" s="3">
-        <v>800</v>
-      </c>
-      <c r="K58" s="3">
-        <v>700</v>
       </c>
       <c r="L58" s="3">
         <v>800</v>
       </c>
       <c r="M58" s="3">
+        <v>700</v>
+      </c>
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F59" s="3">
         <v>4300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>4600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F60" s="3">
         <v>5200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2402,8 +2688,14 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2437,8 +2729,14 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2770,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2811,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2852,55 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="E66" s="3">
         <v>6100</v>
       </c>
       <c r="F66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H66" s="3">
         <v>4900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2914,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2951,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2992,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +3033,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +3074,55 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-66400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-63200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-60400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-52800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-49900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-47400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-46400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-39800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-37300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-35000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-34600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-33700</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3156,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3197,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3238,55 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-4700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-6000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-4800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-4500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-3800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-3600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2400</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-1400</v>
       </c>
       <c r="M76" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O76" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3320,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-7500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-6600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,31 +3428,33 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3067,8 +3465,14 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3506,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3547,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3588,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3629,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3670,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3732,10 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3303,20 +3745,20 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3327,8 +3769,14 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3810,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3851,14 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3408,20 +3868,20 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3432,8 +3892,14 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3913,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3950,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3991,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4032,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,43 +4073,55 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F100" s="3">
         <v>1400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
-      </c>
-      <c r="I100" s="3">
-        <v>400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>500</v>
       </c>
       <c r="K100" s="3">
         <v>400</v>
       </c>
       <c r="L100" s="3">
+        <v>500</v>
+      </c>
+      <c r="M100" s="3">
+        <v>400</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,39 +4155,51 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>800</v>
+      </c>
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABML_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABML_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>ABML</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,74 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -769,8 +772,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -810,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
       <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>700</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
       <c r="K12" s="3">
         <v>0</v>
       </c>
       <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
       <c r="N12" s="3">
         <v>0</v>
       </c>
       <c r="O12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,49 +966,55 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-1300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-600</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-100</v>
       </c>
       <c r="H14" s="3">
         <v>-100</v>
       </c>
       <c r="I14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J14" s="3">
         <v>-300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,49 +1071,53 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1096,40 +1125,43 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1154,48 +1187,51 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-5900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-1600</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1227,90 +1263,99 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1100</v>
       </c>
       <c r="H22" s="3">
         <v>1100</v>
       </c>
       <c r="I22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J22" s="3">
         <v>700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-13300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-13300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1646,81 +1715,87 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>800</v>
+      </c>
+      <c r="F32" s="3">
         <v>5900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-13300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-13300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,23 +1966,24 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -1905,10 +1991,10 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>300</v>
-      </c>
-      <c r="K41" s="3">
-        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
@@ -1917,13 +2003,16 @@
         <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,8 +2052,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2004,8 +2096,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,8 +2140,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2057,7 +2155,7 @@
         <v>200</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2066,42 +2164,45 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
       <c r="N45" s="3">
+        <v>200</v>
+      </c>
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
-      </c>
-      <c r="G46" s="3">
-        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
@@ -2110,13 +2211,13 @@
         <v>100</v>
       </c>
       <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>100</v>
-      </c>
-      <c r="L46" s="3">
-        <v>300</v>
       </c>
       <c r="M46" s="3">
         <v>300</v>
@@ -2125,10 +2226,13 @@
         <v>300</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2156,8 +2260,8 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
@@ -2168,19 +2272,22 @@
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
+      <c r="F48" s="3">
+        <v>100</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
@@ -2194,8 +2301,8 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2209,8 +2316,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2250,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2373,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,8 +2536,11 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2423,13 +2548,13 @@
         <v>1600</v>
       </c>
       <c r="E54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F54" s="3">
         <v>1200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>100</v>
       </c>
       <c r="H54" s="3">
         <v>100</v>
@@ -2438,13 +2563,13 @@
         <v>100</v>
       </c>
       <c r="J54" s="3">
+        <v>100</v>
+      </c>
+      <c r="K54" s="3">
         <v>500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>200</v>
-      </c>
-      <c r="L54" s="3">
-        <v>300</v>
       </c>
       <c r="M54" s="3">
         <v>300</v>
@@ -2453,10 +2578,13 @@
         <v>300</v>
       </c>
       <c r="O54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,25 +2618,26 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>500</v>
       </c>
       <c r="F57" s="3">
+        <v>500</v>
+      </c>
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
-      </c>
-      <c r="H57" s="3">
-        <v>600</v>
       </c>
       <c r="I57" s="3">
         <v>600</v>
@@ -2516,13 +2646,13 @@
         <v>600</v>
       </c>
       <c r="K57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L57" s="3">
         <v>500</v>
       </c>
       <c r="M57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N57" s="3">
         <v>400</v>
@@ -2530,131 +2660,143 @@
       <c r="O57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
-      </c>
-      <c r="H58" s="3">
-        <v>400</v>
       </c>
       <c r="I58" s="3">
         <v>400</v>
       </c>
       <c r="J58" s="3">
+        <v>400</v>
+      </c>
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>700</v>
-      </c>
-      <c r="N58" s="3">
-        <v>800</v>
       </c>
       <c r="O58" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E59" s="3">
         <v>3200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
-      </c>
-      <c r="N59" s="3">
-        <v>500</v>
       </c>
       <c r="O59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E60" s="3">
         <v>4700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2665,7 +2807,7 @@
         <v>300</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2694,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E66" s="3">
         <v>5000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,13 +3162,16 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-102100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-66400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-63200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-60400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-52800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-49900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-47400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-46400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-39800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-37300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-35000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-34600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-33700</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-6000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-13300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,16 +3627,17 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>4</v>
@@ -3456,8 +3654,8 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3471,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-500</v>
       </c>
       <c r="L89" s="3">
         <v>-500</v>
       </c>
       <c r="M89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N89" s="3">
         <v>-300</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3745,8 +3965,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -3760,8 +3980,8 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3775,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,19 +4083,22 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -3883,8 +4112,8 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -3898,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,49 +4321,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E100" s="3">
         <v>1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,45 +4409,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABML_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABML_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>ABML</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +779,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,43 +904,46 @@
         <v>0</v>
       </c>
       <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
       <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>700</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
       <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
       <c r="O12" s="3">
         <v>0</v>
       </c>
       <c r="P12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,52 +986,58 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-1600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-1300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-600</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-100</v>
       </c>
       <c r="I14" s="3">
         <v>-100</v>
       </c>
       <c r="J14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K14" s="3">
         <v>-300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1098,56 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>28400</v>
+        <v>-8400</v>
       </c>
       <c r="E17" s="3">
+        <v>20800</v>
+      </c>
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1155,46 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,43 +1221,46 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,11 +1268,11 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1600</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1266,96 +1303,105 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
         <v>1000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1100</v>
       </c>
       <c r="I22" s="3">
         <v>1100</v>
       </c>
       <c r="J22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K22" s="3">
         <v>700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-35700</v>
+        <v>-5000</v>
       </c>
       <c r="E23" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-13300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-35700</v>
+        <v>-5000</v>
       </c>
       <c r="E26" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-13300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-35700</v>
+        <v>-5000</v>
       </c>
       <c r="E27" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-13300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,87 +1785,93 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-35700</v>
+        <v>-5000</v>
       </c>
       <c r="E33" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-13300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-35700</v>
+        <v>-5000</v>
       </c>
       <c r="E35" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-13300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,26 +2053,27 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -1994,10 +2081,10 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>300</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
@@ -2006,13 +2093,16 @@
         <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,13 +2239,16 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
@@ -2158,7 +2257,7 @@
         <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -2167,45 +2266,48 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
       </c>
       <c r="O45" s="3">
+        <v>200</v>
+      </c>
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
-      </c>
-      <c r="H46" s="3">
-        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
@@ -2214,13 +2316,13 @@
         <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>100</v>
-      </c>
-      <c r="M46" s="3">
-        <v>300</v>
       </c>
       <c r="N46" s="3">
         <v>300</v>
@@ -2229,10 +2331,13 @@
         <v>300</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2263,8 +2368,8 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
+      <c r="M47" s="3">
+        <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
@@ -2275,22 +2380,25 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1000</v>
-      </c>
-      <c r="E48" s="3">
-        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
+      <c r="G48" s="3">
+        <v>100</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
@@ -2304,8 +2412,8 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2319,31 +2427,34 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,25 +2662,28 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1600</v>
+        <v>9500</v>
       </c>
       <c r="E54" s="3">
         <v>1600</v>
       </c>
       <c r="F54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G54" s="3">
         <v>1200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>400</v>
-      </c>
-      <c r="H54" s="3">
-        <v>100</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
@@ -2566,13 +2692,13 @@
         <v>100</v>
       </c>
       <c r="K54" s="3">
+        <v>100</v>
+      </c>
+      <c r="L54" s="3">
         <v>500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>200</v>
-      </c>
-      <c r="M54" s="3">
-        <v>300</v>
       </c>
       <c r="N54" s="3">
         <v>300</v>
@@ -2581,10 +2707,13 @@
         <v>300</v>
       </c>
       <c r="P54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,28 +2749,29 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
-      </c>
-      <c r="E57" s="3">
-        <v>500</v>
       </c>
       <c r="F57" s="3">
         <v>500</v>
       </c>
       <c r="G57" s="3">
+        <v>500</v>
+      </c>
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
-      </c>
-      <c r="I57" s="3">
-        <v>600</v>
       </c>
       <c r="J57" s="3">
         <v>600</v>
@@ -2649,13 +2780,13 @@
         <v>600</v>
       </c>
       <c r="L57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M57" s="3">
         <v>500</v>
       </c>
       <c r="N57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O57" s="3">
         <v>400</v>
@@ -2663,140 +2794,152 @@
       <c r="P57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
-      </c>
-      <c r="I58" s="3">
-        <v>400</v>
       </c>
       <c r="J58" s="3">
         <v>400</v>
       </c>
       <c r="K58" s="3">
+        <v>400</v>
+      </c>
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>700</v>
-      </c>
-      <c r="O58" s="3">
-        <v>800</v>
       </c>
       <c r="P58" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
         <v>6900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
-      </c>
-      <c r="O59" s="3">
-        <v>500</v>
       </c>
       <c r="P59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>7800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2810,7 +2953,7 @@
         <v>300</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2839,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E66" s="3">
         <v>8200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,17 +3330,20 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E70" s="3">
         <v>2800</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
       <c r="F70" s="3">
         <v>0</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-99400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-102100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-66400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-63200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-60400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-52800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-49900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-47400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-46400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-39800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-37300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-35000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-34600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-33700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-9400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-6000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-35700</v>
+        <v>-5000</v>
       </c>
       <c r="E81" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-13300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3639,8 +3838,8 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
@@ -3657,8 +3856,8 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-500</v>
       </c>
       <c r="M89" s="3">
         <v>-500</v>
       </c>
       <c r="N89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,13 +4174,14 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3968,8 +4189,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -3983,8 +4204,8 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,22 +4313,25 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-900</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -4115,8 +4345,8 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E100" s="3">
         <v>1700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABML_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABML_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>ABML</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,86 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +790,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +843,14 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +896,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,55 +921,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
       </c>
       <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
         <v>300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>700</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
       <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
       <c r="Q12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,55 +1023,67 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F14" s="3">
         <v>-15200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-1900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-1600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>-1300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1129,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,55 +1151,63 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F17" s="3">
         <v>-8400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>20800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,46 +1215,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>8400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-20800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-3100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-5900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1278,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,46 +1289,52 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="G20" s="3">
         <v>-6300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-5900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-3600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-700</v>
       </c>
       <c r="N20" s="3">
         <v>-200</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,17 +1342,17 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-27000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1600</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1306,102 +1380,120 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>4400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>2500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>1100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-5000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-28000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-3200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-13300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-7500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-6600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1539,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1592,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-5000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-28000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-3200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-13300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-7500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-6600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-5000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-28000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-13300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-7500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-6600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1751,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1804,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1857,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1910,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,93 +1925,105 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>12700</v>
+      </c>
+      <c r="G32" s="3">
         <v>6300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>5900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>3600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
-      </c>
-      <c r="L32" s="3">
-        <v>200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>700</v>
       </c>
       <c r="N32" s="3">
         <v>200</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-5000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-28000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-13300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-7500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-6600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2069,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-5000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-28000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-13300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-7500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-6600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2205,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2226,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F41" s="3">
         <v>6900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>300</v>
-      </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
-      <c r="N41" s="3">
-        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2328,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2381,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,107 +2434,125 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F45" s="3">
         <v>500</v>
-      </c>
-      <c r="E45" s="3">
-        <v>200</v>
-      </c>
-      <c r="F45" s="3">
-        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F46" s="3">
         <v>7400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
-      </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
-      <c r="J46" s="3">
-        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>300</v>
       </c>
       <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="R46" s="3">
+        <v>300</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -2371,11 +2581,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>4</v>
@@ -2383,29 +2593,35 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F48" s="3">
         <v>1200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2415,11 +2631,11 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2430,20 +2646,26 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F49" s="3">
         <v>800</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2456,11 +2678,11 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2477,8 +2699,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2752,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2805,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2858,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2911,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>60200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>21300</v>
+      </c>
+      <c r="F54" s="3">
         <v>9500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>400</v>
-      </c>
-      <c r="I54" s="3">
-        <v>100</v>
-      </c>
-      <c r="J54" s="3">
-        <v>100</v>
       </c>
       <c r="K54" s="3">
         <v>100</v>
       </c>
       <c r="L54" s="3">
+        <v>100</v>
+      </c>
+      <c r="M54" s="3">
+        <v>100</v>
+      </c>
+      <c r="N54" s="3">
         <v>500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>200</v>
-      </c>
-      <c r="N54" s="3">
-        <v>300</v>
-      </c>
-      <c r="O54" s="3">
-        <v>300</v>
       </c>
       <c r="P54" s="3">
         <v>300</v>
       </c>
       <c r="Q54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="R54" s="3">
+        <v>300</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2989,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,102 +3010,116 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>600</v>
-      </c>
-      <c r="I57" s="3">
-        <v>700</v>
       </c>
       <c r="J57" s="3">
         <v>600</v>
       </c>
       <c r="K57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L57" s="3">
         <v>600</v>
       </c>
       <c r="M57" s="3">
+        <v>600</v>
+      </c>
+      <c r="N57" s="3">
+        <v>600</v>
+      </c>
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
-      </c>
-      <c r="O57" s="3">
-        <v>400</v>
-      </c>
-      <c r="P57" s="3">
-        <v>400</v>
       </c>
       <c r="Q57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>400</v>
+      </c>
+      <c r="S57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>500</v>
-      </c>
-      <c r="N58" s="3">
-        <v>800</v>
-      </c>
-      <c r="O58" s="3">
-        <v>700</v>
       </c>
       <c r="P58" s="3">
         <v>800</v>
       </c>
       <c r="Q58" s="3">
+        <v>700</v>
+      </c>
+      <c r="R58" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2853,101 +3127,113 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
+        <v>200</v>
+      </c>
+      <c r="F59" s="3">
+        <v>200</v>
+      </c>
+      <c r="G59" s="3">
         <v>6900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>5100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>7800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>5800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>6100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>300</v>
@@ -2956,10 +3242,10 @@
         <v>300</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2985,8 +3271,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3324,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3377,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3430,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3483,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5000</v>
-      </c>
-      <c r="G66" s="3">
-        <v>6100</v>
-      </c>
-      <c r="H66" s="3">
-        <v>5200</v>
       </c>
       <c r="I66" s="3">
         <v>6100</v>
       </c>
       <c r="J66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="L66" s="3">
         <v>4900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3561,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3610,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,23 +3663,29 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>400</v>
+      </c>
+      <c r="E70" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F70" s="3">
         <v>2400</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>2800</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -3380,8 +3716,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3769,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-125100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-105100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-99400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-102100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-66400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-63200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-60400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-52800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-49900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-47400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-46400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-39800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-37300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-35000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-34600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-33700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3875,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3928,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3981,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>57400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>17400</v>
+      </c>
+      <c r="F76" s="3">
         <v>6000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-9400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-4900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-4700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-6000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-4800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-4500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-3600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2400</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-1400</v>
       </c>
       <c r="Q76" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="S76" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4087,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-5000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-28000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-13300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-7500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-6600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4223,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3841,11 +4239,11 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
@@ -3859,11 +4257,11 @@
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -3874,8 +4272,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4325,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4378,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4431,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4484,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4537,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-3000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,28 +4615,30 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -4207,11 +4649,11 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4222,8 +4664,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4717,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,28 +4770,34 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-900</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
@@ -4348,11 +4808,11 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4363,8 +4823,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4848,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4897,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4950,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5003,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +5056,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F100" s="3">
         <v>9800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>3800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
-      </c>
-      <c r="M100" s="3">
-        <v>400</v>
-      </c>
-      <c r="N100" s="3">
-        <v>500</v>
       </c>
       <c r="O100" s="3">
         <v>400</v>
       </c>
       <c r="P100" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>400</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +5162,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F102" s="3">
         <v>6500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABML_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABML_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>ABML</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,89 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -796,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,17 +935,18 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
@@ -941,43 +954,46 @@
         <v>0</v>
       </c>
       <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
       <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <v>300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>700</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
       <c r="O12" s="3">
         <v>0</v>
       </c>
       <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>200</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
       <c r="R12" s="3">
         <v>0</v>
       </c>
       <c r="S12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1038,52 +1057,55 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-15200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-1900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-1600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-1300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-600</v>
-      </c>
-      <c r="K14" s="3">
-        <v>-100</v>
       </c>
       <c r="L14" s="3">
         <v>-100</v>
       </c>
       <c r="M14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N14" s="3">
         <v>-300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,61 +1178,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E17" s="3">
         <v>20000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-8400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>20800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1215,52 +1244,55 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-20800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1289,52 +1322,55 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-12700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1342,20 +1378,20 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-5500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-27000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1600</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1386,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1398,102 +1437,108 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2500</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1100</v>
       </c>
       <c r="L22" s="3">
         <v>1100</v>
       </c>
       <c r="M22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N22" s="3">
         <v>700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-20000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-28000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-20000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-28000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-13300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-20000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-28000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1925,105 +1994,111 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>12700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-20000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-28000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-20000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-28000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,35 +2313,36 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E41" s="3">
         <v>45900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2264,10 +2350,10 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>300</v>
-      </c>
-      <c r="O41" s="3">
-        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
@@ -2276,13 +2362,16 @@
         <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2387,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2449,13 +2547,13 @@
         <v>1800</v>
       </c>
       <c r="E45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
-      </c>
-      <c r="G45" s="3">
-        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
@@ -2464,7 +2562,7 @@
         <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -2473,54 +2571,57 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
       </c>
       <c r="R45" s="3">
+        <v>200</v>
+      </c>
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E46" s="3">
         <v>47700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>14100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
-      </c>
-      <c r="K46" s="3">
-        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
@@ -2529,13 +2630,13 @@
         <v>100</v>
       </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>100</v>
-      </c>
-      <c r="P46" s="3">
-        <v>300</v>
       </c>
       <c r="Q46" s="3">
         <v>300</v>
@@ -2544,18 +2645,21 @@
         <v>300</v>
       </c>
       <c r="S46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -2587,8 +2691,8 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
+      <c r="P47" s="3">
+        <v>0</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>4</v>
@@ -2599,31 +2703,34 @@
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
+      <c r="J48" s="3">
+        <v>100</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
@@ -2637,8 +2744,8 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2652,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2661,14 +2771,14 @@
         <v>3800</v>
       </c>
       <c r="E49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F49" s="3">
         <v>1600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>800</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2684,8 +2794,8 @@
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2864,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2926,25 +3051,25 @@
         <v>60200</v>
       </c>
       <c r="E54" s="3">
+        <v>60200</v>
+      </c>
+      <c r="F54" s="3">
         <v>21300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9500</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1600</v>
       </c>
       <c r="H54" s="3">
         <v>1600</v>
       </c>
       <c r="I54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J54" s="3">
         <v>1200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>400</v>
-      </c>
-      <c r="K54" s="3">
-        <v>100</v>
       </c>
       <c r="L54" s="3">
         <v>100</v>
@@ -2953,13 +3078,13 @@
         <v>100</v>
       </c>
       <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
         <v>500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>200</v>
-      </c>
-      <c r="P54" s="3">
-        <v>300</v>
       </c>
       <c r="Q54" s="3">
         <v>300</v>
@@ -2968,10 +3093,13 @@
         <v>300</v>
       </c>
       <c r="S54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,37 +3141,38 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>500</v>
       </c>
       <c r="I57" s="3">
         <v>500</v>
       </c>
       <c r="J57" s="3">
+        <v>500</v>
+      </c>
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
-      </c>
-      <c r="L57" s="3">
-        <v>600</v>
       </c>
       <c r="M57" s="3">
         <v>600</v>
@@ -3051,13 +3181,13 @@
         <v>600</v>
       </c>
       <c r="O57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P57" s="3">
         <v>500</v>
       </c>
       <c r="Q57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R57" s="3">
         <v>400</v>
@@ -3065,61 +3195,67 @@
       <c r="S57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
-      </c>
-      <c r="L58" s="3">
-        <v>400</v>
       </c>
       <c r="M58" s="3">
         <v>400</v>
       </c>
       <c r="N58" s="3">
+        <v>400</v>
+      </c>
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>700</v>
-      </c>
-      <c r="R58" s="3">
-        <v>800</v>
       </c>
       <c r="S58" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3133,99 +3269,105 @@
         <v>200</v>
       </c>
       <c r="G59" s="3">
+        <v>200</v>
+      </c>
+      <c r="H59" s="3">
         <v>6900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>700</v>
-      </c>
-      <c r="R59" s="3">
-        <v>500</v>
       </c>
       <c r="S59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E60" s="3">
         <v>2400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3236,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>300</v>
@@ -3248,7 +3390,7 @@
         <v>300</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3277,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3330,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,26 +3833,29 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>300</v>
+      </c>
+      <c r="E70" s="3">
         <v>400</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>2100</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>2400</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>2800</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-129200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-125100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-105100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-99400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-102100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-66400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-63200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-60400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-52800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-49900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-47400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-46400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-39800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-37300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-35000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-34600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-33700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E76" s="3">
         <v>57400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-9400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-6000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-20000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-28000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4245,8 +4443,8 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
@@ -4263,8 +4461,8 @@
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4278,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2600</v>
+        <v>-1700</v>
       </c>
       <c r="E89" s="3">
         <v>-2600</v>
       </c>
       <c r="F89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G89" s="3">
         <v>-2400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-500</v>
       </c>
       <c r="P89" s="3">
         <v>-500</v>
       </c>
       <c r="Q89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R89" s="3">
         <v>-300</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,31 +4836,32 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -4655,8 +4875,8 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4670,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,31 +5002,34 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-900</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -4814,8 +5043,8 @@
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -4829,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>41200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>13900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>9800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E102" s="3">
         <v>33100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABML_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABML_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>ABML</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +806,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -945,10 +959,10 @@
         <v>200</v>
       </c>
       <c r="E12" s="3">
+        <v>200</v>
+      </c>
+      <c r="F12" s="3">
         <v>100</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -960,40 +974,43 @@
         <v>100</v>
       </c>
       <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
       <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
         <v>300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>700</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
       <c r="P12" s="3">
         <v>0</v>
       </c>
       <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
         <v>200</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
       <c r="S12" s="3">
         <v>0</v>
       </c>
       <c r="T12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1060,52 +1080,55 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>200</v>
+      </c>
+      <c r="G14" s="3">
         <v>-200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-15200</v>
       </c>
-      <c r="H14" s="3">
-        <v>-1900</v>
-      </c>
       <c r="I14" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="J14" s="3">
         <v>-1600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-1300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-600</v>
-      </c>
-      <c r="L14" s="3">
-        <v>-100</v>
       </c>
       <c r="M14" s="3">
         <v>-100</v>
       </c>
       <c r="N14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O14" s="3">
         <v>-300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,64 +1205,68 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E17" s="3">
         <v>4100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>20000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-8400</v>
       </c>
-      <c r="H17" s="3">
-        <v>20800</v>
-      </c>
       <c r="I17" s="3">
+        <v>21600</v>
+      </c>
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1274,58 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-20000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8400</v>
       </c>
-      <c r="H18" s="3">
-        <v>-20800</v>
-      </c>
       <c r="I18" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1325,52 +1359,55 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>-12700</v>
-      </c>
       <c r="H20" s="3">
-        <v>-6300</v>
+        <v>-12600</v>
       </c>
       <c r="I20" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="J20" s="3">
         <v>-800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,23 +1415,23 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-20000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5500</v>
       </c>
-      <c r="G21" s="3">
-        <v>-4300</v>
-      </c>
       <c r="H21" s="3">
-        <v>-27000</v>
+        <v>-4200</v>
       </c>
       <c r="I21" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1425,8 +1462,11 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1440,105 +1480,111 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="H22" s="3">
-        <v>1000</v>
-      </c>
       <c r="I22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J22" s="3">
         <v>1600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2500</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1100</v>
       </c>
       <c r="M22" s="3">
         <v>1100</v>
       </c>
       <c r="N22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O22" s="3">
         <v>700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-20000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5600</v>
       </c>
-      <c r="G23" s="3">
-        <v>-5000</v>
-      </c>
       <c r="H23" s="3">
-        <v>-28000</v>
+        <v>-4900</v>
       </c>
       <c r="I23" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-3200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-20000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5600</v>
       </c>
-      <c r="G26" s="3">
-        <v>-5000</v>
-      </c>
       <c r="H26" s="3">
-        <v>-28000</v>
+        <v>-4900</v>
       </c>
       <c r="I26" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-3200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-20000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5700</v>
       </c>
-      <c r="G27" s="3">
-        <v>-5000</v>
-      </c>
       <c r="H27" s="3">
-        <v>-28000</v>
+        <v>-4900</v>
       </c>
       <c r="I27" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-3200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1997,108 +2067,114 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>12700</v>
-      </c>
       <c r="H32" s="3">
-        <v>6300</v>
+        <v>12600</v>
       </c>
       <c r="I32" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J32" s="3">
         <v>800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-20000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5700</v>
       </c>
-      <c r="G33" s="3">
-        <v>-5000</v>
-      </c>
       <c r="H33" s="3">
-        <v>-28000</v>
+        <v>-4900</v>
       </c>
       <c r="I33" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-3200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-20000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5700</v>
       </c>
-      <c r="G35" s="3">
-        <v>-5000</v>
-      </c>
       <c r="H35" s="3">
-        <v>-28000</v>
+        <v>-4900</v>
       </c>
       <c r="I35" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-3200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,38 +2400,39 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E41" s="3">
         <v>42500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>45900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2353,10 +2440,10 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>300</v>
-      </c>
-      <c r="P41" s="3">
-        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
@@ -2365,36 +2452,39 @@
         <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,25 +2634,28 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
         <v>1800</v>
       </c>
       <c r="F45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G45" s="3">
         <v>1300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
@@ -2565,7 +2664,7 @@
         <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2574,57 +2673,60 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>200</v>
       </c>
       <c r="S45" s="3">
+        <v>200</v>
+      </c>
+      <c r="T45" s="3">
         <v>300</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E46" s="3">
         <v>44400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>47700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
-      </c>
-      <c r="L46" s="3">
-        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
@@ -2633,13 +2735,13 @@
         <v>100</v>
       </c>
       <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>100</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>300</v>
       </c>
       <c r="R46" s="3">
         <v>300</v>
@@ -2648,10 +2750,13 @@
         <v>300</v>
       </c>
       <c r="T46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2661,8 +2766,8 @@
       <c r="E47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -2694,8 +2799,8 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
+      <c r="Q47" s="3">
+        <v>0</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>4</v>
@@ -2706,34 +2811,37 @@
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E48" s="3">
         <v>12000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="K48" s="3">
+        <v>100</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
@@ -2747,8 +2855,8 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2774,14 +2885,14 @@
         <v>3800</v>
       </c>
       <c r="F49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G49" s="3">
         <v>1600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>800</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2797,8 +2908,8 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,37 +3165,40 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>60200</v>
+        <v>56600</v>
       </c>
       <c r="E54" s="3">
         <v>60200</v>
       </c>
       <c r="F54" s="3">
+        <v>60200</v>
+      </c>
+      <c r="G54" s="3">
         <v>21300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9500</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1600</v>
       </c>
       <c r="I54" s="3">
         <v>1600</v>
       </c>
       <c r="J54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>400</v>
-      </c>
-      <c r="L54" s="3">
-        <v>100</v>
       </c>
       <c r="M54" s="3">
         <v>100</v>
@@ -3081,13 +3207,13 @@
         <v>100</v>
       </c>
       <c r="O54" s="3">
+        <v>100</v>
+      </c>
+      <c r="P54" s="3">
         <v>500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>200</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>300</v>
       </c>
       <c r="R54" s="3">
         <v>300</v>
@@ -3096,10 +3222,13 @@
         <v>300</v>
       </c>
       <c r="T54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,40 +3272,41 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4500</v>
+        <v>3400</v>
       </c>
       <c r="E57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>500</v>
       </c>
       <c r="J57" s="3">
         <v>500</v>
       </c>
       <c r="K57" s="3">
+        <v>500</v>
+      </c>
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
-      </c>
-      <c r="M57" s="3">
-        <v>600</v>
       </c>
       <c r="N57" s="3">
         <v>600</v>
@@ -3184,13 +3315,13 @@
         <v>600</v>
       </c>
       <c r="P57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q57" s="3">
         <v>500</v>
       </c>
       <c r="R57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S57" s="3">
         <v>400</v>
@@ -3198,72 +3329,78 @@
       <c r="T57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>500</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>100</v>
-      </c>
-      <c r="K58" s="3">
-        <v>200</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
-      </c>
-      <c r="M58" s="3">
-        <v>400</v>
       </c>
       <c r="N58" s="3">
         <v>400</v>
       </c>
       <c r="O58" s="3">
+        <v>400</v>
+      </c>
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>700</v>
-      </c>
-      <c r="S58" s="3">
-        <v>800</v>
       </c>
       <c r="T58" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
@@ -3272,102 +3409,108 @@
         <v>200</v>
       </c>
       <c r="H59" s="3">
+        <v>200</v>
+      </c>
+      <c r="I59" s="3">
         <v>6900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>700</v>
-      </c>
-      <c r="S59" s="3">
-        <v>500</v>
       </c>
       <c r="T59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H60" s="3">
+        <v>800</v>
+      </c>
+      <c r="I60" s="3">
+        <v>7800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K60" s="3">
+        <v>5800</v>
+      </c>
+      <c r="L60" s="3">
+        <v>5200</v>
+      </c>
+      <c r="M60" s="3">
+        <v>6100</v>
+      </c>
+      <c r="N60" s="3">
         <v>4900</v>
       </c>
-      <c r="E60" s="3">
-        <v>2400</v>
-      </c>
-      <c r="F60" s="3">
+      <c r="O60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="P60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="R60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="S60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
-        <v>800</v>
-      </c>
-      <c r="H60" s="3">
-        <v>7800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>4700</v>
-      </c>
-      <c r="J60" s="3">
-        <v>5800</v>
-      </c>
-      <c r="K60" s="3">
-        <v>5200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>6100</v>
-      </c>
-      <c r="M60" s="3">
-        <v>4900</v>
-      </c>
-      <c r="N60" s="3">
-        <v>4500</v>
-      </c>
-      <c r="O60" s="3">
-        <v>4200</v>
-      </c>
-      <c r="P60" s="3">
-        <v>3800</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>2700</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1900</v>
-      </c>
-      <c r="S60" s="3">
-        <v>1800</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3381,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>300</v>
@@ -3393,7 +3536,7 @@
         <v>300</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -3422,31 +3565,34 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E66" s="3">
         <v>4900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,29 +4001,32 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
         <v>300</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>400</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>2100</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>2400</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>2800</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-131800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-129200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-125100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-105100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-99400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-102100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-66400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-63200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-60400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-52800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-49900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-47400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-46400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-39800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-37300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-35000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-34600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-33700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>52700</v>
+      </c>
+      <c r="E76" s="3">
         <v>55100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>57400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-9400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-6000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-20000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5700</v>
       </c>
-      <c r="G81" s="3">
-        <v>-5000</v>
-      </c>
       <c r="H81" s="3">
-        <v>-28000</v>
+        <v>-4900</v>
       </c>
       <c r="I81" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-3200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4446,8 +4645,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -4464,8 +4663,8 @@
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1700</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-2600</v>
       </c>
       <c r="F89" s="3">
         <v>-2600</v>
       </c>
       <c r="G89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="H89" s="3">
         <v>-2400</v>
       </c>
-      <c r="H89" s="3">
-        <v>-1600</v>
-      </c>
       <c r="I89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J89" s="3">
         <v>-1100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-500</v>
       </c>
       <c r="Q89" s="3">
         <v>-500</v>
       </c>
       <c r="R89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S89" s="3">
         <v>-300</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,34 +5057,35 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>1200</v>
+        <v>-3800</v>
       </c>
       <c r="E91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -4878,8 +5099,8 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,34 +5232,37 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-900</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
@@ -5046,8 +5276,8 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>41200</v>
       </c>
-      <c r="F100" s="3">
-        <v>13900</v>
-      </c>
       <c r="G100" s="3">
-        <v>9800</v>
+        <v>13800</v>
       </c>
       <c r="H100" s="3">
-        <v>1700</v>
+        <v>9900</v>
       </c>
       <c r="I100" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J100" s="3">
         <v>1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>33100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>6500</v>
       </c>
-      <c r="H102" s="3">
-        <v>-900</v>
-      </c>
       <c r="I102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABML_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABML_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>ABML</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,97 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -809,8 +813,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +875,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,67 +963,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
       </c>
       <c r="F12" s="3">
+        <v>200</v>
+      </c>
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
       </c>
       <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
         <v>300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
       <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
         <v>300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>700</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
       <c r="Q12" s="3">
         <v>0</v>
       </c>
       <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
         <v>200</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
       <c r="T12" s="3">
         <v>0</v>
       </c>
       <c r="U12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1080,55 +1100,58 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-15200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-3500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-1600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-600</v>
-      </c>
-      <c r="M14" s="3">
-        <v>-100</v>
       </c>
       <c r="N14" s="3">
         <v>-100</v>
       </c>
       <c r="O14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P14" s="3">
         <v>-300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,67 +1232,71 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E17" s="3">
         <v>2800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>20000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-8400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>21600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1274,58 +1304,61 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-20000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-21600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1356,58 +1390,61 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-12600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1415,26 +1452,26 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-20000</v>
       </c>
-      <c r="G21" s="3">
-        <v>-5500</v>
-      </c>
       <c r="H21" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="I21" s="3">
         <v>-4200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-28600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1465,8 +1502,11 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1483,108 +1523,114 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2500</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1100</v>
       </c>
       <c r="N22" s="3">
         <v>1100</v>
       </c>
       <c r="O22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P22" s="3">
         <v>700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-20000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-31200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-20000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-31200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-20000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-31200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2064,117 +2134,123 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>12600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-20000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-31200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-20000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-31200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,41 +2487,42 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E41" s="3">
         <v>36300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>42500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>45900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2443,10 +2530,10 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>300</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
@@ -2455,21 +2542,24 @@
         <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
+      <c r="E42" s="3">
+        <v>0</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>4</v>
@@ -2486,8 +2576,8 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2519,8 +2609,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,28 +2733,31 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1800</v>
       </c>
       <c r="F45" s="3">
         <v>1800</v>
       </c>
       <c r="G45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
-      </c>
-      <c r="I45" s="3">
-        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
@@ -2667,7 +2766,7 @@
         <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2676,60 +2775,63 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>200</v>
       </c>
       <c r="T45" s="3">
+        <v>200</v>
+      </c>
+      <c r="U45" s="3">
         <v>300</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E46" s="3">
         <v>36800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>44400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>47700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>14100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
-      </c>
-      <c r="M46" s="3">
-        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>100</v>
@@ -2738,13 +2840,13 @@
         <v>100</v>
       </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>100</v>
-      </c>
-      <c r="R46" s="3">
-        <v>300</v>
       </c>
       <c r="S46" s="3">
         <v>300</v>
@@ -2753,10 +2855,13 @@
         <v>300</v>
       </c>
       <c r="U46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2769,8 +2874,8 @@
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -2802,8 +2907,8 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
+      <c r="R47" s="3">
+        <v>0</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>4</v>
@@ -2814,37 +2919,40 @@
       <c r="U47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E48" s="3">
         <v>16000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3">
+        <v>100</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
@@ -2858,8 +2966,8 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2873,13 +2981,16 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="E49" s="3">
         <v>3800</v>
@@ -2888,14 +2999,14 @@
         <v>3800</v>
       </c>
       <c r="G49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H49" s="3">
         <v>1600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>800</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2911,8 +3022,8 @@
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,40 +3291,43 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>52900</v>
+      </c>
+      <c r="E54" s="3">
         <v>56600</v>
-      </c>
-      <c r="E54" s="3">
-        <v>60200</v>
       </c>
       <c r="F54" s="3">
         <v>60200</v>
       </c>
       <c r="G54" s="3">
+        <v>60200</v>
+      </c>
+      <c r="H54" s="3">
         <v>21300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9500</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1600</v>
       </c>
       <c r="J54" s="3">
         <v>1600</v>
       </c>
       <c r="K54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L54" s="3">
         <v>1200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
-      </c>
-      <c r="M54" s="3">
-        <v>100</v>
       </c>
       <c r="N54" s="3">
         <v>100</v>
@@ -3210,13 +3336,13 @@
         <v>100</v>
       </c>
       <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>200</v>
-      </c>
-      <c r="R54" s="3">
-        <v>300</v>
       </c>
       <c r="S54" s="3">
         <v>300</v>
@@ -3225,10 +3351,13 @@
         <v>300</v>
       </c>
       <c r="U54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,43 +3403,44 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>500</v>
       </c>
       <c r="K57" s="3">
         <v>500</v>
       </c>
       <c r="L57" s="3">
+        <v>500</v>
+      </c>
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
-      </c>
-      <c r="N57" s="3">
-        <v>600</v>
       </c>
       <c r="O57" s="3">
         <v>600</v>
@@ -3318,13 +3449,13 @@
         <v>600</v>
       </c>
       <c r="Q57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="R57" s="3">
         <v>500</v>
       </c>
       <c r="S57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T57" s="3">
         <v>400</v>
@@ -3332,8 +3463,11 @@
       <c r="U57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3346,64 +3480,67 @@
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>700</v>
-      </c>
-      <c r="N58" s="3">
-        <v>400</v>
       </c>
       <c r="O58" s="3">
         <v>400</v>
       </c>
       <c r="P58" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>700</v>
-      </c>
-      <c r="T58" s="3">
-        <v>800</v>
       </c>
       <c r="U58" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>300</v>
       </c>
       <c r="F59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G59" s="3">
         <v>200</v>
@@ -3412,105 +3549,111 @@
         <v>200</v>
       </c>
       <c r="I59" s="3">
+        <v>200</v>
+      </c>
+      <c r="J59" s="3">
         <v>6900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>700</v>
-      </c>
-      <c r="T59" s="3">
-        <v>500</v>
       </c>
       <c r="U59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E60" s="3">
         <v>3700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3527,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>300</v>
@@ -3539,7 +3682,7 @@
         <v>300</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -3568,8 +3711,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3579,8 +3725,8 @@
       <c r="E62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3">
+        <v>200</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -3594,8 +3740,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E66" s="3">
         <v>3900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4013,23 +4181,23 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>300</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>400</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>2100</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>2400</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>2800</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-138600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-131800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-129200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-125100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-105100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-99400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-102100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-66400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-63200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-60400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-52800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-49900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-47400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-46400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-39800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-37300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-35000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-34600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-33700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>49600</v>
+      </c>
+      <c r="E76" s="3">
         <v>52700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>55100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>57400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>17400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-9400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-6000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-20000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-31200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4648,8 +4847,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
@@ -4666,8 +4865,8 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +5190,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4985,58 +5202,61 @@
         <v>-2900</v>
       </c>
       <c r="E89" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1700</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-2600</v>
       </c>
       <c r="G89" s="3">
         <v>-2600</v>
       </c>
       <c r="H89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="I89" s="3">
         <v>-2400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-500</v>
       </c>
       <c r="R89" s="3">
         <v>-500</v>
       </c>
       <c r="S89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T89" s="3">
         <v>-300</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,37 +5278,38 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -5102,8 +5323,8 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,37 +5462,40 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-900</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
@@ -5279,8 +5509,8 @@
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -5294,8 +5524,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>41200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>13800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>9900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>33100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABML_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABML_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>ABML</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,104 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -816,8 +823,14 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -878,8 +891,14 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +959,14 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,70 +989,78 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>600</v>
+      </c>
+      <c r="F12" s="3">
         <v>1400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1300</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>700</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
       <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
         <v>200</v>
       </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
       <c r="V12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,70 +1121,82 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-15200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-3500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-1600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-1300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>-100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>-300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>-600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,70 +1284,78 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F17" s="3">
         <v>6800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>4100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>20000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>5600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>-8400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>21600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>5900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1304,61 +1363,67 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-4100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-20000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-5600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>8400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-21600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-3100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-5900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1446,10 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1390,61 +1457,67 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-12600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-7000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-5900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-3600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>800</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-700</v>
       </c>
       <c r="S20" s="3">
         <v>-200</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1452,32 +1525,32 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="G21" s="3">
         <v>-2600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-4100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-20000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-5600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-4200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-28600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1505,16 +1578,22 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1526,111 +1605,123 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>2600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>4400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>2500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-6900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-4100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-20000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-5600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-4900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-31200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-13300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-7500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-6600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-2600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-2200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-6900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-4100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-20000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-5600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-4900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-31200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-13300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-7500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-6600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-2600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-2200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-6900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-4100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-20000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-5700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-31200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-13300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-7500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-6600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-2600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-2200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2258,14 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2134,123 +2273,135 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>12600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>7000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>5900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>3600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>200</v>
-      </c>
-      <c r="R32" s="3">
-        <v>700</v>
       </c>
       <c r="S32" s="3">
         <v>200</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-6900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-4100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-20000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-5700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-31200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-13300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-7500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-6600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-2600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-2200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-6900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-4100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-20000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-5700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-31200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-13300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-7500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-6600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-2600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-2200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2659,78 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>20900</v>
+      </c>
+      <c r="F41" s="3">
         <v>29000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>36300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>42500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>45900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>12800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>6900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>300</v>
-      </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
-      <c r="S41" s="3">
-        <v>100</v>
       </c>
       <c r="T41" s="3">
         <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2561,11 +2740,11 @@
       <c r="E42" s="3">
         <v>0</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
@@ -2579,11 +2758,11 @@
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2612,31 +2791,37 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2674,8 +2859,14 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,8 +2927,14 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2745,123 +2942,135 @@
         <v>900</v>
       </c>
       <c r="E45" s="3">
+        <v>800</v>
+      </c>
+      <c r="F45" s="3">
+        <v>900</v>
+      </c>
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
-      </c>
-      <c r="J45" s="3">
-        <v>200</v>
-      </c>
-      <c r="K45" s="3">
-        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>300</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>21700</v>
+      </c>
+      <c r="F46" s="3">
         <v>29900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>36800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>44400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>47700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>14100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>7400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
-      </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
-      <c r="O46" s="3">
-        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
         <v>100</v>
       </c>
       <c r="S46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="U46" s="3">
         <v>300</v>
       </c>
       <c r="V46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="W46" s="3">
+        <v>300</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2877,11 +3086,11 @@
       <c r="G47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -2910,11 +3119,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>4</v>
@@ -2922,44 +3131,50 @@
       <c r="V47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>28200</v>
+      </c>
+      <c r="F48" s="3">
         <v>19100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>16000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>12000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>8700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>5500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2969,11 +3184,11 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -2984,8 +3199,14 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2993,26 +3214,26 @@
         <v>3900</v>
       </c>
       <c r="E49" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F49" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="G49" s="3">
         <v>3800</v>
       </c>
       <c r="H49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J49" s="3">
         <v>1600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>800</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3025,11 +3246,11 @@
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -3046,8 +3267,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3403,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3232,8 +3471,14 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>53800</v>
+      </c>
+      <c r="F54" s="3">
         <v>52900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>56600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>60200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>60200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>21300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>9500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>400</v>
-      </c>
-      <c r="N54" s="3">
-        <v>100</v>
-      </c>
-      <c r="O54" s="3">
-        <v>100</v>
       </c>
       <c r="P54" s="3">
         <v>100</v>
       </c>
       <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+      <c r="R54" s="3">
+        <v>100</v>
+      </c>
+      <c r="S54" s="3">
         <v>500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>200</v>
-      </c>
-      <c r="S54" s="3">
-        <v>300</v>
-      </c>
-      <c r="T54" s="3">
-        <v>300</v>
       </c>
       <c r="U54" s="3">
         <v>300</v>
       </c>
       <c r="V54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="W54" s="3">
+        <v>300</v>
+      </c>
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,84 +3663,92 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>4400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
-      </c>
-      <c r="M57" s="3">
-        <v>600</v>
-      </c>
-      <c r="N57" s="3">
-        <v>700</v>
       </c>
       <c r="O57" s="3">
         <v>600</v>
       </c>
       <c r="P57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q57" s="3">
         <v>600</v>
       </c>
       <c r="R57" s="3">
+        <v>600</v>
+      </c>
+      <c r="S57" s="3">
+        <v>600</v>
+      </c>
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>500</v>
-      </c>
-      <c r="T57" s="3">
-        <v>400</v>
-      </c>
-      <c r="U57" s="3">
-        <v>400</v>
       </c>
       <c r="V57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>400</v>
+      </c>
+      <c r="X57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3490,46 +3757,52 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>500</v>
-      </c>
-      <c r="S58" s="3">
-        <v>800</v>
-      </c>
-      <c r="T58" s="3">
-        <v>700</v>
       </c>
       <c r="U58" s="3">
         <v>800</v>
       </c>
       <c r="V58" s="3">
+        <v>700</v>
+      </c>
+      <c r="W58" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3537,123 +3810,135 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
+        <v>100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>100</v>
+      </c>
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
       </c>
       <c r="J59" s="3">
+        <v>200</v>
+      </c>
+      <c r="K59" s="3">
+        <v>200</v>
+      </c>
+      <c r="L59" s="3">
         <v>6900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>5100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>4600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>3400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F60" s="3">
         <v>3100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>5200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>4200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3673,10 +3958,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>300</v>
@@ -3685,10 +3970,10 @@
         <v>300</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -3714,25 +3999,31 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>200</v>
+      </c>
+      <c r="H62" s="3">
+        <v>200</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
@@ -3743,11 +4034,11 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3776,8 +4067,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F66" s="3">
         <v>3200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5000</v>
-      </c>
-      <c r="L66" s="3">
-        <v>6100</v>
-      </c>
-      <c r="M66" s="3">
-        <v>5200</v>
       </c>
       <c r="N66" s="3">
         <v>6100</v>
       </c>
       <c r="O66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="P66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="Q66" s="3">
         <v>4900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4184,26 +4519,26 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>300</v>
       </c>
-      <c r="G70" s="3">
+      <c r="I70" s="3">
         <v>400</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>2100</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>2400</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>2800</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -4234,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-147300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-141100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-138600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-131800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-129200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-125100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-105100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-99400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-102100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-66400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-63200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-60400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-52800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-49900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-47400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-46400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-39800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-37300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-35000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-34600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-33700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>47300</v>
+      </c>
+      <c r="F76" s="3">
         <v>49600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>52700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>55100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>57400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>17400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>6000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-9400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-3400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-4900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-4700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-6000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-4800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-3800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-3600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-2400</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-1400</v>
       </c>
       <c r="V76" s="3">
         <v>-1600</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="X76" s="3">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-6900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-4100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-20000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-5700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-31200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-13300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-7500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-6600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-2600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-2200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4850,11 +5247,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
@@ -4868,11 +5265,11 @@
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -4883,8 +5280,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-3000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,43 +5718,45 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-4100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-3800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-3400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-4500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -5326,11 +5767,11 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5341,8 +5782,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,43 +5918,49 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-3800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-5600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-5400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-900</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
@@ -5512,11 +5971,11 @@
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5527,8 +5986,14 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6284,82 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>41200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>13800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>9900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>3200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>3800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>700</v>
-      </c>
-      <c r="R100" s="3">
-        <v>400</v>
-      </c>
-      <c r="S100" s="3">
-        <v>500</v>
       </c>
       <c r="T100" s="3">
         <v>400</v>
       </c>
       <c r="U100" s="3">
+        <v>500</v>
+      </c>
+      <c r="V100" s="3">
+        <v>400</v>
+      </c>
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6420,78 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-7300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-6200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-3400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>33100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>5900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>6500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABML_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABML_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>ABML</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,108 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +833,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,76 +1004,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>600</v>
+      </c>
+      <c r="E12" s="3">
         <v>2300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1400</v>
-      </c>
-      <c r="G12" s="3">
-        <v>200</v>
       </c>
       <c r="H12" s="3">
         <v>200</v>
       </c>
       <c r="I12" s="3">
+        <v>200</v>
+      </c>
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1300</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
       </c>
       <c r="N12" s="3">
+        <v>100</v>
+      </c>
+      <c r="O12" s="3">
         <v>300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
       <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
         <v>300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>700</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
       <c r="T12" s="3">
         <v>0</v>
       </c>
       <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
         <v>200</v>
       </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
       <c r="W12" s="3">
         <v>0</v>
       </c>
       <c r="X12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,19 +1144,22 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1148,55 +1168,58 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-15200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-3500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-1600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-1300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-600</v>
-      </c>
-      <c r="P14" s="3">
-        <v>-100</v>
       </c>
       <c r="Q14" s="3">
         <v>-100</v>
       </c>
       <c r="R14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S14" s="3">
         <v>-300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,76 +1312,80 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E17" s="3">
         <v>6200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>20000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-8400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,67 +1393,70 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-20000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-21600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-5900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1481,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,17 +1491,17 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1475,49 +1509,52 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-12600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,35 +1562,35 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-20000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-28600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1584,19 +1621,22 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1611,117 +1651,123 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2500</v>
-      </c>
-      <c r="P22" s="3">
-        <v>1100</v>
       </c>
       <c r="Q22" s="3">
         <v>1100</v>
       </c>
       <c r="R22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S22" s="3">
         <v>700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>200</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-20000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-31200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-6600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-20000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-31200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-13300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-20000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-31200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-13300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2331,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,17 +2343,17 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2291,117 +2361,123 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>12600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-20000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-31200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-13300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-20000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-31200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-13300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,50 +2747,51 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E41" s="3">
         <v>11400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>20900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>29000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>36300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>42500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>45900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
@@ -2712,10 +2799,10 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>300</v>
-      </c>
-      <c r="T41" s="3">
-        <v>100</v>
       </c>
       <c r="U41" s="3">
         <v>100</v>
@@ -2724,13 +2811,16 @@
         <v>100</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2746,8 +2836,8 @@
       <c r="G42" s="3">
         <v>0</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
+      <c r="H42" s="3">
+        <v>0</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
@@ -2764,8 +2854,8 @@
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2797,20 +2887,23 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3">
         <v>1400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2823,8 +2916,8 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,37 +3029,40 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>1800</v>
       </c>
       <c r="I45" s="3">
         <v>1800</v>
       </c>
       <c r="J45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K45" s="3">
         <v>1300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
-      </c>
-      <c r="L45" s="3">
-        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
@@ -2972,7 +3071,7 @@
         <v>200</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -2981,69 +3080,72 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>200</v>
       </c>
       <c r="W45" s="3">
+        <v>200</v>
+      </c>
+      <c r="X45" s="3">
         <v>300</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E46" s="3">
         <v>13700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>21700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>29900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>36800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>44400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>47700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>14100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
-      </c>
-      <c r="P46" s="3">
-        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
@@ -3052,13 +3154,13 @@
         <v>100</v>
       </c>
       <c r="S46" s="3">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>100</v>
-      </c>
-      <c r="U46" s="3">
-        <v>300</v>
       </c>
       <c r="V46" s="3">
         <v>300</v>
@@ -3067,30 +3169,33 @@
         <v>300</v>
       </c>
       <c r="X46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -3125,8 +3230,8 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>4</v>
+      <c r="U47" s="3">
+        <v>0</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>4</v>
@@ -3137,46 +3242,49 @@
       <c r="X47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E48" s="3">
         <v>30100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>28200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>19100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>16000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>100</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+      <c r="O48" s="3">
+        <v>100</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
@@ -3190,8 +3298,8 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -3205,8 +3313,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3220,7 +3331,7 @@
         <v>3900</v>
       </c>
       <c r="G49" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="H49" s="3">
         <v>3800</v>
@@ -3229,14 +3340,14 @@
         <v>3800</v>
       </c>
       <c r="J49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K49" s="3">
         <v>1600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>800</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3252,8 +3363,8 @@
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,49 +3668,52 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>57400</v>
+      </c>
+      <c r="E54" s="3">
         <v>47600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>53800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>52900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>56600</v>
-      </c>
-      <c r="H54" s="3">
-        <v>60200</v>
       </c>
       <c r="I54" s="3">
         <v>60200</v>
       </c>
       <c r="J54" s="3">
+        <v>60200</v>
+      </c>
+      <c r="K54" s="3">
         <v>21300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9500</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1600</v>
       </c>
       <c r="M54" s="3">
         <v>1600</v>
       </c>
       <c r="N54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O54" s="3">
         <v>1200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>400</v>
-      </c>
-      <c r="P54" s="3">
-        <v>100</v>
       </c>
       <c r="Q54" s="3">
         <v>100</v>
@@ -3596,13 +3722,13 @@
         <v>100</v>
       </c>
       <c r="S54" s="3">
+        <v>100</v>
+      </c>
+      <c r="T54" s="3">
         <v>500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>200</v>
-      </c>
-      <c r="U54" s="3">
-        <v>300</v>
       </c>
       <c r="V54" s="3">
         <v>300</v>
@@ -3611,10 +3737,13 @@
         <v>300</v>
       </c>
       <c r="X54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,52 +3795,53 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>500</v>
       </c>
       <c r="N57" s="3">
         <v>500</v>
       </c>
       <c r="O57" s="3">
+        <v>500</v>
+      </c>
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>600</v>
       </c>
       <c r="R57" s="3">
         <v>600</v>
@@ -3719,13 +3850,13 @@
         <v>600</v>
       </c>
       <c r="T57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="U57" s="3">
         <v>500</v>
       </c>
       <c r="V57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="W57" s="3">
         <v>400</v>
@@ -3733,8 +3864,11 @@
       <c r="X57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3763,51 +3897,54 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>700</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>400</v>
       </c>
       <c r="R58" s="3">
         <v>400</v>
       </c>
       <c r="S58" s="3">
+        <v>400</v>
+      </c>
+      <c r="T58" s="3">
         <v>300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>700</v>
-      </c>
-      <c r="W58" s="3">
-        <v>800</v>
       </c>
       <c r="X58" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>100</v>
+      <c r="D59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -3816,13 +3953,13 @@
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>300</v>
       </c>
       <c r="I59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
@@ -3831,114 +3968,120 @@
         <v>200</v>
       </c>
       <c r="L59" s="3">
+        <v>200</v>
+      </c>
+      <c r="M59" s="3">
         <v>6900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>700</v>
-      </c>
-      <c r="W59" s="3">
-        <v>500</v>
       </c>
       <c r="X59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3964,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>300</v>
@@ -3976,7 +4119,7 @@
         <v>300</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -4005,8 +4148,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4017,7 +4163,7 @@
         <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
         <v>200</v>
@@ -4025,8 +4171,8 @@
       <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3">
+        <v>200</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -4040,8 +4186,8 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4525,23 +4693,23 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>300</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>400</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>2100</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>2400</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>2800</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-152900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-147300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-141100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-138600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-131800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-129200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-125100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-105100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-99400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-102100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-66400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-63200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-60400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-52800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-49900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-47400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-46400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-39800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-37300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-35000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-34600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-33700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E76" s="3">
         <v>45900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>47300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>49600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>52700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>55100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>57400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>17400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-9400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-4800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-4500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-20000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-31200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-13300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5253,8 +5452,8 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
@@ -5271,8 +5470,8 @@
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4000</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-2900</v>
       </c>
       <c r="G89" s="3">
         <v>-2900</v>
       </c>
       <c r="H89" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I89" s="3">
         <v>-1700</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-2600</v>
       </c>
       <c r="J89" s="3">
         <v>-2600</v>
       </c>
       <c r="K89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="L89" s="3">
         <v>-2400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-500</v>
       </c>
       <c r="U89" s="3">
         <v>-500</v>
       </c>
       <c r="V89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W89" s="3">
         <v>-300</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-100</v>
       </c>
       <c r="X89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,46 +5940,47 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2100</v>
+        <v>-6300</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>-6100</v>
       </c>
       <c r="F91" s="3">
         <v>-4100</v>
       </c>
       <c r="G91" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-3800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1600</v>
       </c>
-      <c r="I91" s="3">
-        <v>-3400</v>
-      </c>
       <c r="J91" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-900</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
@@ -5773,8 +5994,8 @@
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,46 +6151,49 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6100</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-4100</v>
       </c>
       <c r="F94" s="3">
         <v>-4100</v>
       </c>
       <c r="G94" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="H94" s="3">
         <v>-3800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-900</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
@@ -5977,8 +6207,8 @@
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -5992,8 +6222,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6533,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>41200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>13800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>9900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-8100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>33100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABML_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABML_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>ABML</t>
   </si>
@@ -1011,7 +1011,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>600</v>
+        <v>2100</v>
       </c>
       <c r="E12" s="3">
         <v>2300</v>
@@ -1700,8 +1700,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-5600</v>
       </c>
       <c r="E23" s="3">
         <v>-6200</v>
@@ -1913,8 +1913,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-5600</v>
       </c>
       <c r="E26" s="3">
         <v>-6200</v>
@@ -1984,8 +1984,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-5600</v>
       </c>
       <c r="E27" s="3">
         <v>-6200</v>
@@ -2410,8 +2410,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-5600</v>
       </c>
       <c r="E33" s="3">
         <v>-6200</v>
@@ -2552,8 +2552,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-5600</v>
       </c>
       <c r="E35" s="3">
         <v>-6200</v>
@@ -2895,8 +2895,8 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>300</v>
       </c>
       <c r="E43" s="3">
         <v>1400</v>
@@ -3535,25 +3535,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>6100</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E57" s="3">
         <v>1500</v>
@@ -3943,8 +3943,8 @@
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
+      <c r="D59" s="3">
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -5324,8 +5324,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-5600</v>
       </c>
       <c r="E81" s="3">
         <v>-6200</v>
@@ -5947,7 +5947,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6300</v>
+        <v>-1700</v>
       </c>
       <c r="E91" s="3">
         <v>-6100</v>
